--- a/data/CCRI_results_misc/p1_min_max.xlsx
+++ b/data/CCRI_results_misc/p1_min_max.xlsx
@@ -1513,47 +1513,41 @@
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Value>6</Value>
-    </TaxCatchAll>
+    <mda26ace941f4791a7314a339fee829c xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mda26ace941f4791a7314a339fee829c>
+    <h6a71f3e574e4344bc34f3fc9dd20054 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h6a71f3e574e4344bc34f3fc9dd20054>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <SemaphoreItemMetadata xmlns="a76b0140-28c1-4949-9061-73baa9a50b95" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="a76b0140-28c1-4949-9061-73baa9a50b95">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <ContentLanguage xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">English</ContentLanguage>
+    <k8c968e8c72a4eda96b7e8fdbe192be2 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </k8c968e8c72a4eda96b7e8fdbe192be2>
+    <DateTransmittedEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <j048a4f9aaad4a8990a1d5e5f53cb451 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j048a4f9aaad4a8990a1d5e5f53cb451>
+    <ContentStatus xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
+    <SenderEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
+    <RecipientsEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
+    <Year xmlns="431894da-f74b-4c4d-89bf-6ece43584d53" xsi:nil="true"/>
     <ga975397408f43e4b84ec8e5a598e523 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis,Planning &amp; Monitoring-456C</TermName>
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis,Planning ＆ Monitoring-456C</TermName>
           <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5955b2fd-5d7f-4ec6-8d67-6bd2d19d2fcb</TermId>
         </TermInfo>
       </Terms>
     </ga975397408f43e4b84ec8e5a598e523>
-    <k8c968e8c72a4eda96b7e8fdbe192be2 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </k8c968e8c72a4eda96b7e8fdbe192be2>
-    <j169e817e0ee4eb8974e6fc4a2762909 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j169e817e0ee4eb8974e6fc4a2762909>
-    <DateTransmittedEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <ContentStatus xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <Year xmlns="431894da-f74b-4c4d-89bf-6ece43584d53" xsi:nil="true"/>
-    <SenderEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="a76b0140-28c1-4949-9061-73baa9a50b95">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <ContentLanguage xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">English</ContentLanguage>
-    <j048a4f9aaad4a8990a1d5e5f53cb451 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j048a4f9aaad4a8990a1d5e5f53cb451>
-    <h6a71f3e574e4344bc34f3fc9dd20054 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h6a71f3e574e4344bc34f3fc9dd20054>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="431894da-f74b-4c4d-89bf-6ece43584d53">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <RecipientsEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <mda26ace941f4791a7314a339fee829c xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mda26ace941f4791a7314a339fee829c>
-    <SemaphoreItemMetadata xmlns="a76b0140-28c1-4949-9061-73baa9a50b95" xsi:nil="true"/>
     <WrittenBy xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
       <UserInfo>
         <DisplayName/>
@@ -1561,30 +1555,36 @@
         <AccountType/>
       </UserInfo>
     </WrittenBy>
+    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
+      <Value>6</Value>
+    </TaxCatchAll>
+    <j169e817e0ee4eb8974e6fc4a2762909 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j169e817e0ee4eb8974e6fc4a2762909>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B41D7E5-A1AB-49DA-BEA6-82CDE33B65C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DDB6FF-E293-4518-AF17-4A5ED463BFA9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0626913-5B5C-42B6-BBCC-A752001760CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA6AD69-F649-4EB5-A2C3-FE3EAFF2AAF9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB524E92-3940-460C-A404-8D0A307B22E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA79F15-BF01-47FA-8BC0-E37AA433C4D3}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC97915-A322-496F-9966-99075844AEDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88830C6F-3E96-4660-9764-3743AAF0A40B}"/>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12CFD271-C1BF-41E7-80B2-6CD0008111F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282AC81A-C9D4-4FE3-A17C-FB0962C469F3}"/>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2D8937F-1633-4008-98A7-C8B80AB596C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E03DFBA-A6D1-47C7-80A6-D4CDE6CF23A9}"/>
 </file>
--- a/data/CCRI_results_misc/p1_min_max.xlsx
+++ b/data/CCRI_results_misc/p1_min_max.xlsx
@@ -1042,549 +1042,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="UNICEF Document" ma:contentTypeID="0x0101009BA85F8052A6DA4FA3E31FF9F74C6970009E2AD3415A60FE4E9598109367108771" ma:contentTypeVersion="44" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="afde85a748d4be8b29ebdb0f8da3e9bd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ca283e0b-db31-4043-a2ef-b80661bf084a" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="a76b0140-28c1-4949-9061-73baa9a50b95" xmlns:ns5="431894da-f74b-4c4d-89bf-6ece43584d53" xmlns:ns6="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1227d5a8800420a7ccef16f17db9b978" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
-    <xsd:import namespace="a76b0140-28c1-4949-9061-73baa9a50b95"/>
-    <xsd:import namespace="431894da-f74b-4c4d-89bf-6ece43584d53"/>
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:WrittenBy" minOccurs="0"/>
-                <xsd:element ref="ns2:ContentLanguage" minOccurs="0"/>
-                <xsd:element ref="ns3:CategoryDescription" minOccurs="0"/>
-                <xsd:element ref="ns2:RecipientsEmail" minOccurs="0"/>
-                <xsd:element ref="ns2:SenderEmail" minOccurs="0"/>
-                <xsd:element ref="ns2:DateTransmittedEmail" minOccurs="0"/>
-                <xsd:element ref="ns2:k8c968e8c72a4eda96b7e8fdbe192be2" minOccurs="0"/>
-                <xsd:element ref="ns2:ga975397408f43e4b84ec8e5a598e523" minOccurs="0"/>
-                <xsd:element ref="ns2:mda26ace941f4791a7314a339fee829c" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:h6a71f3e574e4344bc34f3fc9dd20054" minOccurs="0"/>
-                <xsd:element ref="ns2:ContentStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:j169e817e0ee4eb8974e6fc4a2762909" minOccurs="0"/>
-                <xsd:element ref="ns2:j048a4f9aaad4a8990a1d5e5f53cb451" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns6:IconOverlay" minOccurs="0"/>
-                <xsd:element ref="ns1:_vti_ItemDeclaredRecord" minOccurs="0"/>
-                <xsd:element ref="ns1:_vti_ItemHoldRecordStatus" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxKeywordTaxHTField" minOccurs="0"/>
-                <xsd:element ref="ns4:SemaphoreItemMetadata" minOccurs="0"/>
-                <xsd:element ref="ns5:Year" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns5:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_vti_ItemDeclaredRecord" ma:index="39" nillable="true" ma:displayName="Declared Record" ma:hidden="true" ma:internalName="_vti_ItemDeclaredRecord" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_vti_ItemHoldRecordStatus" ma:index="40" nillable="true" ma:displayName="Hold and Record Status" ma:decimals="0" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="_vti_ItemHoldRecordStatus" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca283e0b-db31-4043-a2ef-b80661bf084a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="WrittenBy" ma:index="3" nillable="true" ma:displayName="Written By" ma:description="‘Written By’ is auto-completed with the name of the uploader, but can be edited if you are uploading on behalf of someone else." ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="WrittenBy" ma:readOnly="false" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ContentLanguage" ma:index="4" nillable="true" ma:displayName="Content Language *" ma:default="English" ma:format="RadioButtons" ma:indexed="true" ma:internalName="ContentLanguage" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="English"/>
-          <xsd:enumeration value="French"/>
-          <xsd:enumeration value="Spanish"/>
-          <xsd:enumeration value="Russian"/>
-          <xsd:enumeration value="Chinese"/>
-          <xsd:enumeration value="Arabic"/>
-          <xsd:enumeration value="other"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RecipientsEmail" ma:index="9" nillable="true" ma:displayName="Recipients (email)" ma:hidden="true" ma:internalName="RecipientsEmail" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SenderEmail" ma:index="10" nillable="true" ma:displayName="Sender (email)" ma:hidden="true" ma:internalName="SenderEmail" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DateTransmittedEmail" ma:index="11" nillable="true" ma:displayName="Date transmitted (email)" ma:format="DateTime" ma:hidden="true" ma:internalName="DateTransmittedEmail" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="k8c968e8c72a4eda96b7e8fdbe192be2" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="k8c968e8c72a4eda96b7e8fdbe192be2" ma:taxonomyFieldName="GeographicScope" ma:displayName="Geographic Scope" ma:default="" ma:fieldId="{48c968e8-c72a-4eda-96b7-e8fdbe192be2}" ma:taxonomyMulti="true" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="0a00fedf-defc-4fe3-a3bf-9929b29a638e" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ga975397408f43e4b84ec8e5a598e523" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="ga975397408f43e4b84ec8e5a598e523" ma:taxonomyFieldName="OfficeDivision" ma:displayName="Office/Division *" ma:default="6;#Analysis,Planning &amp; Monitoring-456C|5955b2fd-5d7f-4ec6-8d67-6bd2d19d2fcb" ma:fieldId="{0a975397-408f-43e4-b84e-c8e5a598e523}" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="1761a25e-44f4-4213-964a-f96c515e12cb" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="mda26ace941f4791a7314a339fee829c" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="mda26ace941f4791a7314a339fee829c" ma:taxonomyFieldName="DocumentType" ma:displayName="Document Type *" ma:indexed="true" ma:readOnly="false" ma:default="" ma:fieldId="{6da26ace-941f-4791-a731-4a339fee829c}" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="f93b6877-8902-4378-8587-5ec85f36ead9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{0b330b10-f7ea-42ed-b1b6-b0b55682f078}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="a76b0140-28c1-4949-9061-73baa9a50b95">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{0b330b10-f7ea-42ed-b1b6-b0b55682f078}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a76b0140-28c1-4949-9061-73baa9a50b95">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="h6a71f3e574e4344bc34f3fc9dd20054" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="h6a71f3e574e4344bc34f3fc9dd20054" ma:taxonomyFieldName="Topic" ma:displayName="Topic *" ma:readOnly="false" ma:default="" ma:fieldId="{16a71f3e-574e-4344-bc34-f3fc9dd20054}" ma:taxonomyMulti="true" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="9561e0e6-71cf-4f3c-87c3-08a6b5d907e8" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ContentStatus" ma:index="25" nillable="true" ma:displayName="Content Status" ma:description="Optional column to indicate document status: no status, draft, final or expired.​" ma:format="RadioButtons" ma:internalName="ContentStatus">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="­"/>
-          <xsd:enumeration value="Draft"/>
-          <xsd:enumeration value="Final"/>
-          <xsd:enumeration value="Expired"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="j169e817e0ee4eb8974e6fc4a2762909" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="j169e817e0ee4eb8974e6fc4a2762909" ma:taxonomyFieldName="CriticalForLongTermRetention" ma:displayName="Critical for long-term retention?" ma:default="" ma:fieldId="{3169e817-e0ee-4eb8-974e-6fc4a2762909}" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="59f85175-3dbf-4592-9c1d-453af9da4e8b" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="j048a4f9aaad4a8990a1d5e5f53cb451" ma:index="28" nillable="true" ma:taxonomy="true" ma:internalName="j048a4f9aaad4a8990a1d5e5f53cb451" ma:taxonomyFieldName="SystemDTAC" ma:displayName="System-DT-AC" ma:default="" ma:fieldId="{3048a4f9-aaad-4a89-90a1-d5e5f53cb451}" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="1e3381f3-a35f-499a-9a3c-017e5423e02a" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint.v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="CategoryDescription" ma:index="6" nillable="true" ma:displayName="Description" ma:internalName="CategoryDescription">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a76b0140-28c1-4949-9061-73baa9a50b95" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="33" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="34" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxKeywordTaxHTField" ma:index="41" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SemaphoreItemMetadata" ma:index="42" nillable="true" ma:displayName="Semaphore Status" ma:hidden="true" ma:internalName="SemaphoreItemMetadata">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="431894da-f74b-4c4d-89bf-6ece43584d53" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="31" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="32" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="35" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="36" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="37" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Year" ma:index="43" nillable="true" ma:displayName="Year" ma:format="Dropdown" ma:internalName="Year">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="2020"/>
-          <xsd:enumeration value="2021"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="44" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="45" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="46" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="47" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="48" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="50" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="51" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="IconOverlay" ma:index="38" nillable="true" ma:displayName="IconOverlay" ma:hidden="true" ma:internalName="IconOverlay">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="20" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f51738-d318-4883-9d64-4f0bd0ccc55e" ContentTypeId="0x0101009BA85F8052A6DA4FA3E31FF9F74C6970" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <mda26ace941f4791a7314a339fee829c xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mda26ace941f4791a7314a339fee829c>
-    <h6a71f3e574e4344bc34f3fc9dd20054 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h6a71f3e574e4344bc34f3fc9dd20054>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <SemaphoreItemMetadata xmlns="a76b0140-28c1-4949-9061-73baa9a50b95" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="a76b0140-28c1-4949-9061-73baa9a50b95">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <ContentLanguage xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">English</ContentLanguage>
-    <k8c968e8c72a4eda96b7e8fdbe192be2 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </k8c968e8c72a4eda96b7e8fdbe192be2>
-    <DateTransmittedEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <j048a4f9aaad4a8990a1d5e5f53cb451 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j048a4f9aaad4a8990a1d5e5f53cb451>
-    <ContentStatus xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <SenderEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <RecipientsEmail xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <Year xmlns="431894da-f74b-4c4d-89bf-6ece43584d53" xsi:nil="true"/>
-    <ga975397408f43e4b84ec8e5a598e523 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis,Planning ＆ Monitoring-456C</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5955b2fd-5d7f-4ec6-8d67-6bd2d19d2fcb</TermId>
-        </TermInfo>
-      </Terms>
-    </ga975397408f43e4b84ec8e5a598e523>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="431894da-f74b-4c4d-89bf-6ece43584d53">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <WrittenBy xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </WrittenBy>
-    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Value>6</Value>
-    </TaxCatchAll>
-    <j169e817e0ee4eb8974e6fc4a2762909 xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j169e817e0ee4eb8974e6fc4a2762909>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DDB6FF-E293-4518-AF17-4A5ED463BFA9}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA6AD69-F649-4EB5-A2C3-FE3EAFF2AAF9}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA79F15-BF01-47FA-8BC0-E37AA433C4D3}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88830C6F-3E96-4660-9764-3743AAF0A40B}"/>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282AC81A-C9D4-4FE3-A17C-FB0962C469F3}"/>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E03DFBA-A6D1-47C7-80A6-D4CDE6CF23A9}"/>
 </file>